--- a/프리코네/UI분석.xlsx
+++ b/프리코네/UI분석.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\GitHub\smallprecious\프리코네\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\프리코네\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EAD425-ADAE-4F2F-A0EC-BD3E3454494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
+    <workbookView xWindow="37950" yWindow="795" windowWidth="20250" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="147">
   <si>
     <t>마이페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,13 +584,41 @@
   </si>
   <si>
     <t>타이틀로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일괄 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,971 +958,1007 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" t="s">
-        <v>6</v>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>7</v>
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>2</v>
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="D22" t="s">
-        <v>24</v>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="1"/>
-      <c r="D33" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D49" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="1"/>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="1"/>
-      <c r="D49" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" s="1"/>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C63" s="1"/>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="1"/>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C65" s="1"/>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C66" s="1"/>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="1"/>
+      <c r="D72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>60</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D74" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>75</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D78" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D88" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C84" s="1"/>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C85" s="1"/>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C86" s="1"/>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C87" s="1"/>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C88" s="1"/>
-      <c r="D88" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C89" s="1"/>
       <c r="D89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C90" s="1"/>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="1"/>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="1"/>
+      <c r="D94" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D94" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>88</v>
+      <c r="D98" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>89</v>
+      <c r="D99" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="D100" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>90</v>
+      <c r="D101" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>91</v>
-      </c>
       <c r="D102" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D103" t="s">
-        <v>93</v>
+      <c r="C103" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D105" t="s">
-        <v>95</v>
+      <c r="C105" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D106" t="s">
-        <v>96</v>
+      <c r="C106" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>91</v>
+      </c>
       <c r="D107" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D119" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C115" s="1"/>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C116" s="1"/>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C117" s="1"/>
-      <c r="D117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C118" s="1"/>
-      <c r="D118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C119" s="1"/>
-      <c r="D119" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
       <c r="D120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C121" s="1"/>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C122" s="1"/>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C123" s="1"/>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C124" s="1"/>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="1"/>
+      <c r="D125" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
-        <v>47</v>
-      </c>
-      <c r="D122" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D123" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D125" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D126" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D127" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
-        <v>114</v>
-      </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>110</v>
+      </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
+        <v>114</v>
+      </c>
+      <c r="D135" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D141" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C137" s="1"/>
-      <c r="D137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C138" s="1"/>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C139" s="1"/>
-      <c r="D139" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C140" s="1"/>
-      <c r="D140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C141" s="1"/>
-      <c r="D141" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C142" s="1"/>
       <c r="D142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C143" s="1"/>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C144" s="1"/>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C145" s="1"/>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C146" s="1"/>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C147" s="1"/>
+      <c r="D147" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
         <v>75</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D148" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D144" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D145" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
-        <v>125</v>
-      </c>
-      <c r="D146" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D147" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D148" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>125</v>
+      </c>
       <c r="D151" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
         <v>139</v>
       </c>
     </row>
